--- a/data/phase3/stage_intervention_sample_phase3.xlsx
+++ b/data/phase3/stage_intervention_sample_phase3.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="519">
   <si>
     <t>Taxi park</t>
   </si>
@@ -1816,6 +1816,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kajjansi currently shares vehicles with Namasuba, but the stage is considering splitting completely and running drivers/vehicles exclusively to Kajjansi in the future (pending passenger demand). </t>
+  </si>
+  <si>
+    <t>11am-3pm</t>
   </si>
   <si>
     <t>Dropped</t>
@@ -14523,7 +14526,7 @@
         <v>453</v>
       </c>
       <c r="S22" s="95" t="s">
-        <v>47</v>
+        <v>468</v>
       </c>
       <c r="T22" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, filter('phase 3 route list'!$K$1:$K$200, 'phase 3 route list'!$D$1:$D$200=$B22))"),"4000,4000,3000,4000")</f>
@@ -14546,10 +14549,10 @@
       </c>
       <c r="F23" s="146"/>
       <c r="G23" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K23" s="136"/>
       <c r="L23" s="137" t="str">
@@ -14587,10 +14590,10 @@
       </c>
       <c r="F24" s="146"/>
       <c r="G24" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K24" s="136"/>
       <c r="L24" s="137" t="str">
@@ -14827,24 +14830,24 @@
     </row>
     <row r="29" hidden="1">
       <c r="A29" s="146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B29" s="147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C29" s="147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D29" s="146"/>
       <c r="E29" s="146" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F29" s="146"/>
       <c r="G29" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K29" s="136"/>
       <c r="L29" s="137" t="str">
@@ -14866,24 +14869,24 @@
     </row>
     <row r="30" hidden="1">
       <c r="A30" s="146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B30" s="147" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C30" s="147" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D30" s="146"/>
       <c r="E30" s="146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F30" s="146"/>
       <c r="G30" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K30" s="136"/>
       <c r="L30" s="137" t="str">
@@ -14905,13 +14908,13 @@
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B31" s="153" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C31" s="153" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D31" s="146"/>
       <c r="E31" s="151" t="s">
@@ -14919,10 +14922,10 @@
       </c>
       <c r="F31" s="146"/>
       <c r="G31" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K31" s="136"/>
       <c r="L31" s="137" t="str">
@@ -14944,13 +14947,13 @@
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B32" s="147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C32" s="147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D32" s="146"/>
       <c r="E32" s="146" t="s">
@@ -14958,10 +14961,10 @@
       </c>
       <c r="F32" s="146"/>
       <c r="G32" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K32" s="136"/>
       <c r="L32" s="137" t="str">
@@ -14983,13 +14986,13 @@
     </row>
     <row r="33" hidden="1">
       <c r="A33" s="146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B33" s="147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C33" s="147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D33" s="146"/>
       <c r="E33" s="146" t="s">
@@ -14997,10 +15000,10 @@
       </c>
       <c r="F33" s="146"/>
       <c r="G33" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K33" s="136"/>
       <c r="L33" s="137" t="str">
@@ -15022,24 +15025,24 @@
     </row>
     <row r="34" hidden="1">
       <c r="A34" s="146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B34" s="147" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C34" s="147" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D34" s="146"/>
       <c r="E34" s="146" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F34" s="146"/>
       <c r="G34" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K34" s="136"/>
       <c r="L34" s="137" t="str">
@@ -15061,13 +15064,13 @@
     </row>
     <row r="35" hidden="1">
       <c r="A35" s="146" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B35" s="147" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C35" s="147" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D35" s="146"/>
       <c r="E35" s="146" t="s">
@@ -15075,10 +15078,10 @@
       </c>
       <c r="F35" s="146"/>
       <c r="G35" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K35" s="136"/>
       <c r="L35" s="137" t="str">
@@ -15100,24 +15103,24 @@
     </row>
     <row r="36" hidden="1">
       <c r="A36" s="146" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B36" s="147" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C36" s="147" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D36" s="146"/>
       <c r="E36" s="146" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F36" s="146"/>
       <c r="G36" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K36" s="136"/>
       <c r="L36" s="137" t="str">
@@ -15139,13 +15142,13 @@
     </row>
     <row r="37" hidden="1">
       <c r="A37" s="146" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B37" s="147" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C37" s="147" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D37" s="146"/>
       <c r="E37" s="146" t="s">
@@ -15153,10 +15156,10 @@
       </c>
       <c r="F37" s="146"/>
       <c r="G37" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K37" s="136"/>
       <c r="L37" s="137" t="str">
@@ -15178,13 +15181,13 @@
     </row>
     <row r="38" hidden="1">
       <c r="A38" s="146" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B38" s="147" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C38" s="147" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D38" s="146"/>
       <c r="E38" s="146" t="s">
@@ -15192,10 +15195,10 @@
       </c>
       <c r="F38" s="146"/>
       <c r="G38" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K38" s="136"/>
       <c r="L38" s="137" t="str">
@@ -15217,24 +15220,24 @@
     </row>
     <row r="39" hidden="1">
       <c r="A39" s="146" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B39" s="147" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C39" s="147" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D39" s="146"/>
       <c r="E39" s="146" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F39" s="146"/>
       <c r="G39" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K39" s="136"/>
       <c r="L39" s="137" t="str">
@@ -15256,26 +15259,26 @@
     </row>
     <row r="40" hidden="1">
       <c r="A40" s="151" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B40" s="154" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C40" s="154" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D40" s="146"/>
       <c r="E40" s="155" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F40" s="155" t="s">
         <v>455</v>
       </c>
       <c r="G40" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K40" s="136"/>
       <c r="L40" s="137" t="str">
@@ -15297,26 +15300,26 @@
     </row>
     <row r="41" hidden="1">
       <c r="A41" s="151" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B41" s="156" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C41" s="157" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D41" s="146"/>
       <c r="E41" s="158" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F41" s="155" t="s">
         <v>458</v>
       </c>
       <c r="G41" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K41" s="136"/>
       <c r="L41" s="137" t="str">
@@ -15338,7 +15341,7 @@
     </row>
     <row r="42" hidden="1">
       <c r="A42" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B42" s="159" t="s">
         <v>239</v>
@@ -15376,7 +15379,7 @@
     </row>
     <row r="43" hidden="1">
       <c r="A43" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B43" s="147" t="s">
         <v>250</v>
@@ -15395,7 +15398,7 @@
         <v>459</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K43" s="136"/>
       <c r="L43" s="137" t="str">
@@ -15417,7 +15420,7 @@
     </row>
     <row r="44" hidden="1">
       <c r="A44" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B44" s="147" t="s">
         <v>255</v>
@@ -15433,10 +15436,10 @@
       </c>
       <c r="F44" s="146"/>
       <c r="G44" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K44" s="136"/>
       <c r="L44" s="137" t="str">
@@ -15458,7 +15461,7 @@
     </row>
     <row r="45" ht="25.5" hidden="1" customHeight="1">
       <c r="A45" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B45" s="147" t="s">
         <v>131</v>
@@ -15496,7 +15499,7 @@
     </row>
     <row r="46" hidden="1">
       <c r="A46" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B46" s="147" t="s">
         <v>143</v>
@@ -15534,7 +15537,7 @@
     </row>
     <row r="47" hidden="1">
       <c r="A47" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B47" s="147" t="s">
         <v>284</v>
@@ -15572,24 +15575,24 @@
     </row>
     <row r="48" hidden="1">
       <c r="A48" s="151" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B48" s="153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C48" s="153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D48" s="146"/>
       <c r="E48" s="146" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F48" s="146"/>
       <c r="G48" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K48" s="136"/>
       <c r="L48" s="137" t="str">
@@ -15611,24 +15614,24 @@
     </row>
     <row r="49" hidden="1">
       <c r="A49" s="146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B49" s="147" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C49" s="147" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D49" s="146"/>
       <c r="E49" s="146" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F49" s="146"/>
       <c r="G49" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K49" s="136"/>
       <c r="L49" s="137" t="str">
@@ -15650,24 +15653,24 @@
     </row>
     <row r="50" hidden="1">
       <c r="A50" s="146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C50" s="145" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D50" s="146"/>
       <c r="E50" s="151" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F50" s="151"/>
       <c r="G50" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K50" s="136"/>
       <c r="L50" s="137" t="str">
@@ -15689,13 +15692,13 @@
     </row>
     <row r="51" hidden="1">
       <c r="A51" s="146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C51" s="145" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D51" s="146"/>
       <c r="E51" s="146" t="s">
@@ -15703,10 +15706,10 @@
       </c>
       <c r="F51" s="146"/>
       <c r="G51" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H51" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K51" s="136"/>
       <c r="L51" s="137" t="str">
@@ -15728,24 +15731,24 @@
     </row>
     <row r="52" hidden="1">
       <c r="A52" s="146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C52" s="145" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D52" s="146"/>
       <c r="E52" s="146" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F52" s="146"/>
       <c r="G52" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H52" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K52" s="136"/>
       <c r="L52" s="137" t="str">
@@ -15767,13 +15770,13 @@
     </row>
     <row r="53" hidden="1">
       <c r="A53" s="146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C53" s="145" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D53" s="146"/>
       <c r="E53" s="146" t="s">
@@ -15781,10 +15784,10 @@
       </c>
       <c r="F53" s="146"/>
       <c r="G53" s="152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H53" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K53" s="136"/>
       <c r="L53" s="137" t="str">
@@ -15806,7 +15809,7 @@
     </row>
     <row r="54" hidden="1">
       <c r="A54" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B54" s="147" t="s">
         <v>294</v>
@@ -15844,7 +15847,7 @@
     </row>
     <row r="55">
       <c r="A55" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B55" s="147" t="s">
         <v>302</v>
@@ -15874,10 +15877,10 @@
         <v>37.1</v>
       </c>
       <c r="O55" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P55" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q55" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, unique(filter('phase 3 route list'!$Q$1:$Q$200, 'phase 3 route list'!$D$1:$D$200=$B55, 'phase 3 route list'!$O$1:$O$200=""include"")))"),"1pm-6pm")</f>
@@ -15896,7 +15899,7 @@
     </row>
     <row r="56">
       <c r="A56" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B56" s="147" t="s">
         <v>309</v>
@@ -15931,10 +15934,10 @@
         <v>12.40580696</v>
       </c>
       <c r="O56" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P56" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q56" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, unique(filter('phase 3 route list'!$Q$1:$Q$200, 'phase 3 route list'!$D$1:$D$200=$B56, 'phase 3 route list'!$O$1:$O$200=""include"")))"),"12pm-6pm")</f>
@@ -15953,7 +15956,7 @@
     </row>
     <row r="57" hidden="1">
       <c r="A57" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B57" s="147" t="s">
         <v>347</v>
@@ -15991,7 +15994,7 @@
     </row>
     <row r="58">
       <c r="A58" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B58" s="147" t="s">
         <v>314</v>
@@ -16023,10 +16026,10 @@
         <v>36.54891115</v>
       </c>
       <c r="O58" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P58" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q58" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, unique(filter('phase 3 route list'!$Q$1:$Q$200, 'phase 3 route list'!$D$1:$D$200=$B58, 'phase 3 route list'!$O$1:$O$200=""include"")))"),"12pm-6pm")</f>
@@ -16045,7 +16048,7 @@
     </row>
     <row r="59" hidden="1">
       <c r="A59" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B59" s="147" t="s">
         <v>360</v>
@@ -16083,7 +16086,7 @@
     </row>
     <row r="60">
       <c r="A60" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B60" s="147" t="s">
         <v>319</v>
@@ -16098,8 +16101,8 @@
         <v>254</v>
       </c>
       <c r="F60" s="146"/>
-      <c r="G60" s="42" t="s">
-        <v>450</v>
+      <c r="G60" s="95" t="s">
+        <v>459</v>
       </c>
       <c r="K60" s="136"/>
       <c r="L60" s="137" t="str">
@@ -16115,10 +16118,10 @@
         <v>#N/A</v>
       </c>
       <c r="O60" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P60" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q60" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, unique(filter('phase 3 route list'!$Q$1:$Q$200, 'phase 3 route list'!$D$1:$D$200=$B60, 'phase 3 route list'!$O$1:$O$200=""include"")))"),"#N/A")</f>
@@ -16137,7 +16140,7 @@
     </row>
     <row r="61">
       <c r="A61" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B61" s="147" t="s">
         <v>355</v>
@@ -16189,7 +16192,7 @@
     </row>
     <row r="62" hidden="1">
       <c r="A62" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B62" s="147" t="s">
         <v>326</v>
@@ -16222,7 +16225,7 @@
       </c>
       <c r="O62" s="162"/>
       <c r="P62" s="162" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q62" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, unique(filter('phase 3 route list'!$R$1:$R$200, 'phase 3 route list'!$D$1:$D$200=$B62, 'phase 3 route list'!$O$1:$O$200=""include"")))"),"#N/A")</f>
@@ -16235,7 +16238,7 @@
     </row>
     <row r="63">
       <c r="A63" s="146" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B63" s="147" t="s">
         <v>336</v>
@@ -16267,10 +16270,10 @@
         <v>22.06089495</v>
       </c>
       <c r="O63" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P63" s="161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q63" s="137" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("","", TRUE, unique(filter('phase 3 route list'!$Q$1:$Q$200, 'phase 3 route list'!$D$1:$D$200=$B63, 'phase 3 route list'!$O$1:$O$200=""include"")))"),"12pm-6pm")</f>
@@ -16289,7 +16292,7 @@
     </row>
     <row r="64">
       <c r="A64" s="146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B64" s="147" t="s">
         <v>269</v>
@@ -16331,7 +16334,7 @@
         <v>9am-1pm</v>
       </c>
       <c r="R64" s="150" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S64" s="95" t="s">
         <v>122</v>
@@ -16343,7 +16346,7 @@
     </row>
     <row r="65" ht="21.75" hidden="1" customHeight="1">
       <c r="A65" s="146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B65" s="147" t="s">
         <v>21</v>
@@ -16382,7 +16385,7 @@
     </row>
     <row r="66" hidden="1">
       <c r="A66" s="146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B66" s="147" t="s">
         <v>69</v>
@@ -16401,7 +16404,7 @@
         <v>459</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K66" s="136"/>
       <c r="L66" s="137" t="str">
@@ -16423,7 +16426,7 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B67" s="147" t="s">
         <v>55</v>
@@ -16461,7 +16464,7 @@
     </row>
     <row r="68">
       <c r="A68" s="146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B68" s="147" t="s">
         <v>35</v>
@@ -16515,7 +16518,7 @@
     </row>
     <row r="69">
       <c r="A69" s="146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B69" s="147" t="s">
         <v>54</v>
@@ -16569,7 +16572,7 @@
     </row>
     <row r="70">
       <c r="A70" s="146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B70" s="163" t="s">
         <v>22</v>
@@ -16601,7 +16604,7 @@
         <v>#N/A</v>
       </c>
       <c r="O70" s="95" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P70" s="95"/>
       <c r="Q70" s="137" t="str">

--- a/data/phase3/stage_intervention_sample_phase3.xlsx
+++ b/data/phase3/stage_intervention_sample_phase3.xlsx
@@ -363,7 +363,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgcyTq4C46jXkqCH3dsGL0lz4b8BQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miMZzh8WWHOnmg9Pw2/Izlr1N3ZhA=="/>
     </ext>
   </extLst>
 </comments>
@@ -3915,7 +3915,7 @@
         <v>62</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>106</v>
@@ -3968,7 +3968,7 @@
         <v>62</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>106</v>
@@ -4023,7 +4023,7 @@
         <v>62</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>106</v>
@@ -14068,8 +14068,8 @@
         <v>21.83333333</v>
       </c>
       <c r="N11" s="140">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("average(filter('phase 3 route list'!$J$1:$J$200, 'phase 3 route list'!$D$1:$D$200=$B11, 'phase 3 route list'!$O$1:$O$200=""include""))"),21.833333333333332)</f>
-        <v>21.83333333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("average(filter('phase 3 route list'!$J$1:$J$200, 'phase 3 route list'!$D$1:$D$200=$B11, 'phase 3 route list'!$O$1:$O$200=""include""))"),26.9)</f>
+        <v>26.9</v>
       </c>
       <c r="O11" s="147" t="s">
         <v>460</v>
